--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -627,7 +627,7 @@
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>°</t>
+          <t>Â°</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
@@ -662,7 +662,7 @@
       <c r="I6" s="3" t="n"/>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>°</t>
+          <t>Â°</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
@@ -740,7 +740,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Motor_momnet_actual</t>
+          <t>Motor_moment_actual</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -775,7 +775,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Motor_moment_traget</t>
+          <t>Motor_moment_target</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="94" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -627,7 +627,7 @@
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>Â°</t>
+          <t>°</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
@@ -662,7 +662,7 @@
       <c r="I6" s="3" t="n"/>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>Â°</t>
+          <t>°</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr"/>
@@ -1674,6 +1674,182 @@
         </is>
       </c>
     </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Message: DV_DRIVING_DYNAMICS_2</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x501</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>ACCELERATION_LONGITUDINAL</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>m/s^2</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>ACCELERATION_LATERAL</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>m/s^2</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>YAW_RATE</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>m/s
+2</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -1844,8 +1844,7 @@
       <c r="I45" s="3" t="n"/>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t>m/s
-2</t>
+          <t>m/s^2</t>
         </is>
       </c>
       <c r="K45" s="3" t="inlineStr"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Autonomous" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Autonomous_temporary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1852,4 +1853,843 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_MS</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Mission_Select</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Message: JETSON_MS</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x61</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Mission_Select</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_RPM</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Message: Target_RPM</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x500</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_IGN</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>IGN</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Message: RD_JETSON</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x512</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Message: AS_STATE</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x502</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x81</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -1861,7 +1861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,7 +1879,7 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="41" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2179,9 +2179,17 @@
       <c r="G11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
       <c r="K11" s="3" t="inlineStr"/>
     </row>
     <row r="12"/>
@@ -2280,9 +2288,17 @@
       <c r="G15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
       <c r="K15" s="3" t="inlineStr"/>
     </row>
     <row r="16"/>
@@ -2381,313 +2397,461 @@
       <c r="G19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="3" t="n"/>
       <c r="K19" s="3" t="inlineStr"/>
     </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>IGN_SWITCH</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Message: RD_JETSON</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>ID: 0x512</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>RD</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="n">
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24"/>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Message: AS_STATE</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>ID: 0x502</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="n">
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="n"/>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28"/>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Message: VCU_HV</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>ID: 0x81</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>HV</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="n">
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>0=hv off, 9=hv on, 10=contactor error</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Message: RES</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x191</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>SIGNAL</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>5=GO_SIGNAL, 7=GO_SIGNAL_2, 0=EMERGENCY</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -1879,7 +1879,7 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="41" customWidth="1" min="11" max="11"/>
+    <col width="91" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1980,7 +1980,11 @@
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
       <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>0=Manual, 1=Acceleration, 2=Skidpad, 3=trackdrive, 4=braketest, 5=Inspection, 6=Autocross</t>
+        </is>
+      </c>
     </row>
     <row r="4"/>
     <row r="5">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -2443,7 +2443,11 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
     </row>
     <row r="21"/>
     <row r="22">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -2548,7 +2548,11 @@
       <c r="H24" s="3" t="n"/>
       <c r="I24" s="3" t="n"/>
       <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="inlineStr"/>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
     </row>
     <row r="25"/>
     <row r="26">
@@ -2649,7 +2653,11 @@
       <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="n"/>
       <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="inlineStr"/>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>1=OFF, 2=Ready, 3=Driving, 4=Emergency, 5=Finish</t>
+        </is>
+      </c>
     </row>
     <row r="29"/>
     <row r="30">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -2085,7 +2085,11 @@
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0=Manual, 1=Acceleation, 2=Skidpadd, 3=tackdive, 4=baketest, 5=Inspection, 6=Autocoss</t>
+        </is>
+      </c>
     </row>
     <row r="8"/>
     <row r="9">
@@ -2408,12 +2412,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>IGN_SWITCH</t>
+          <t>ASMS</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -448,7 +448,7 @@
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -470,6 +470,11 @@
           <t>ID: 0x500</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamics</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -818,6 +823,11 @@
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>ID: 0x502</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
         </is>
       </c>
     </row>
@@ -1154,6 +1164,11 @@
           <t>ID: 0x191</t>
         </is>
       </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): RES</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1259,6 +1274,11 @@
           <t>ID: 0x51</t>
         </is>
       </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1399,6 +1419,11 @@
           <t>ID: 0x81</t>
         </is>
       </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1685,6 +1710,11 @@
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>ID: 0x501</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Jetson</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1901,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -1893,6 +1923,11 @@
           <t>ID: 0x51</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1998,6 +2033,11 @@
           <t>ID: 0x61</t>
         </is>
       </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -2103,6 +2143,11 @@
           <t>ID: 0x510</t>
         </is>
       </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2212,6 +2257,11 @@
           <t>ID: 0x500</t>
         </is>
       </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -2321,6 +2371,11 @@
           <t>ID: 0x71</t>
         </is>
       </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -2467,6 +2522,11 @@
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>ID: 0x512</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
         </is>
       </c>
     </row>
@@ -2574,6 +2634,11 @@
           <t>ID: 0x502</t>
         </is>
       </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2679,6 +2744,11 @@
           <t>ID: 0x81</t>
         </is>
       </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2784,6 +2854,11 @@
           <t>ID: 0x191</t>
         </is>
       </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): RES</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -1891,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,7 +2017,7 @@
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>0=Manual, 1=Acceleration, 2=Skidpad, 3=trackdrive, 4=braketest, 5=Inspection, 6=Autocross</t>
+          <t>0=Manual, 1=Acceleration, 2=Skidpad, 3=Trackdrive, 4=Braketest, 5=Inspection, 6=Autocross</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>0=Manual, 1=Acceleation, 2=Skidpadd, 3=tackdive, 4=baketest, 5=Inspection, 6=Autocoss</t>
+          <t>0=Manual, 1=Acceleation, 2=Skidpadd, 3=Trackdive, 4=Braketest, 5=Inspection, 6=Autocross</t>
         </is>
       </c>
     </row>
@@ -2512,441 +2512,476 @@
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Emergency</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>1=Emergency_ON, 0=Emergency_OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Message: RD_JETSON</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>ID: 0x512</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Sender(s): ACU</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>RD</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="n">
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="inlineStr">
         <is>
           <t>0=OFF, 1=ON</t>
         </is>
       </c>
     </row>
-    <row r="25"/>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Message: AS_STATE</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>ID: 0x502</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Sender(s): JETSON</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="n">
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="n"/>
-      <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>1=OFF, 2=Ready, 3=Driving, 4=Emergency, 5=Finish</t>
         </is>
       </c>
     </row>
-    <row r="29"/>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Message: VCU_HV</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>ID: 0x81</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Sender(s): VCU</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
+      <c r="K32" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>HV</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="n">
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="n"/>
-      <c r="I32" s="3" t="n"/>
-      <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t>0=hv off, 9=hv on, 10=contactor error</t>
         </is>
       </c>
     </row>
-    <row r="33"/>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Message: RES</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>ID: 0x191</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Sender(s): RES</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I35" s="2" t="inlineStr">
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K35" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>SIGNAL</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="n">
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="inlineStr">
         <is>
           <t>5=GO_SIGNAL, 7=GO_SIGNAL_2, 0=EMERGENCY</t>
         </is>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -1907,7 +1907,7 @@
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="91" customWidth="1" min="11" max="11"/>
   </cols>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="E11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -1891,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,7 +1899,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -1909,7 +1909,7 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="91" customWidth="1" min="11" max="11"/>
+    <col width="92" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2127,7 +2127,7 @@
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>0=Manual, 1=Acceleation, 2=Skidpadd, 3=Trackdive, 4=Braketest, 5=Inspection, 6=Autocross</t>
+          <t>0=Manual, 1=Acceleration, 2=Skidpadd, 3=Trackdrive, 4=Braketest, 5=Inspection, 6=Autocross</t>
         </is>
       </c>
     </row>
@@ -2547,419 +2547,453 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>EBS_Pressure_Front</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>EBS_Pressure_Rear</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Message: RD_JETSON</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>ID: 0x512</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Sender(s): ACU</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>RD</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n"/>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t>0=OFF, 1=ON</t>
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Message: AS_STATE</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>ID: 0x502</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Sender(s): JETSON</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="n">
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
-      <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr">
         <is>
           <t>1=OFF, 2=Ready, 3=Driving, 4=Emergency, 5=Finish</t>
         </is>
       </c>
     </row>
-    <row r="30"/>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Message: VCU_HV</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>ID: 0x81</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Sender(s): VCU</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I32" s="2" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K32" s="2" t="inlineStr">
+      <c r="K34" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>HV</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="n">
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="n"/>
-      <c r="I33" s="3" t="n"/>
-      <c r="J33" s="3" t="n"/>
-      <c r="K33" s="3" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="inlineStr">
         <is>
           <t>0=hv off, 9=hv on, 10=contactor error</t>
         </is>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Message: RES</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x191</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): RES</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Brake_pressure_Front</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>SIGNAL</t>
+          <t>Brake_pressure_Rear</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>8</v>
@@ -2981,7 +3015,113 @@
       <c r="H37" s="3" t="n"/>
       <c r="I37" s="3" t="n"/>
       <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="inlineStr">
+      <c r="K37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Message: RES</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x191</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): RES</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>SIGNAL</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="inlineStr">
         <is>
           <t>5=GO_SIGNAL, 7=GO_SIGNAL_2, 0=EMERGENCY</t>
         </is>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Autonomous" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Autonomous_temporary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DataDBC" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3130,4 +3131,2430 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x20</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>APPS</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TRGT_Power</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>85000</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>CNSM_Power</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>85000</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x21</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>INV_Temperature</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Motor_Temperature</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>BMS_Voltage</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>SOC_HV</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_2</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x22</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>INV_Faults</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>LMT1</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>LMT2</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>VCU_State</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>APPS_Error</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Power_Plan</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_3</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x23</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>INV_Voltage</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>620</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>IGN</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>R2D</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_4</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x24</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>TCU_State</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>ACU_State</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>ALC_State</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>LV_SOC</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>LV_Voltage</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Message: IMU_</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x60</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): IMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>AccelX_int</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>AccelY_dec</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>AccelZ_int</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Heatbit</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Message: IMU_1</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x61</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): IMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>roll_int</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>pitch_dec</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>yaw_int</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Heartbit</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Message: Dynamic_R</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x80</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamic</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_RL</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_RR</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>SusPos_RL</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>SusPos_RR</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>RR_PC</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>RL_PC</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>DY_ST</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Message: Dynamic_F</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0xa0</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamic</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_FL</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_FR</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>SusPos_FL</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>SusPos_FR</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>FR_PC</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>FL_PC</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" s="3" t="n"/>
+      <c r="K70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>DY_ST</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Message: DataLogger</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x180</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DataLogger</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>DL_state</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Recording_State</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="n"/>
+      <c r="K76" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Autonomous" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Autonomous_temporary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DataDBC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="hv500_can2_map_v23_SID" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Autonomous_temporary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DataDBC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1892,6 +1893,2953 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="37" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="758" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_ERPM_DUTY_VOLTAGE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Actual_ERPM</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>-214748000</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>214748000</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>ERPM</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Duty</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Actual_InputVoltage</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>-32768</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>32767</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_AC_DC_current</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x34</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Actual_ACCurrent</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Apk</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Actual_DCCurrent</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_Temperatures</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x54</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Actual_TempController</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Actual_TempMotor</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Actual_FaultCode</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>0=NO_FAULT, 1=OVERVOLTAGE_-_The_input_voltage_is_higher_than_the_set_maximum, 2=UNDERVOLTAGE_-_The_input_voltage_is_lower_than_the_set_minimum, 3=DRV_ERROR_-_Transistor_or_transistor_drive_error, 4=ABSOLUTE_MAX_OVERCURRENT_-_The_AC_current_is_higher_than_the_set_absolute_maximum_current, 5=CONTROLLER_OVERTEMPERATURE_-_The_controller_temperature_is_higher_than_the_set_maximum, 6=MOTOR_OVERTEMPERATURE_-_The_motor_temperature_is_higher_than_the_set_maximum, 7=SENSOR_WIRE_FAULT_-_Something_went_wrong_with_the_sensor_differential_signals, 8=SENSOR_GENERAL_FAULT_-_An_error_occurred_while_processing_the_sensor_signals, 9=CAN_COMMAND_ERROR_-_CAN_message_received_contains_parameter_out_of_boundaries, 10=ANALOG_INPUT_ERROR_â€“_Redundant_output_out_of_range</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_FOC</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x74</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Actual_FOC_id</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>-2147480000</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>2147480000</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>Apk</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Actual_FOC_iq</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>-2147480000</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>2147480000</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>Apk</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_MISC</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x94</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Throttle</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Brake</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_4</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>0=Output_4_disabled, 1=Output_4_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_3</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>0=Output_3_disabled, 1=Output_3_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_2</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>0=Output_2_disabled, 1=Output_2_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_1</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>0=Output_1_disabled, 1=Output_1_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_4</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>0=Input_4_disabled, 1=Input_4_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_3</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>0=Input_3_disabled, 1=Input_3_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_2</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>0=Input_2_enabled, 1=Input_2_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_1</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>0=Input_1_disabled, 1=Input_1_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Drive_enable</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>0=Drive_disabled, 1=Drive_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Motor_temp_limit</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>0=Motor_temperature_limit_inactive, 1=Motor_temperature_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Motor_accel_limit</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>0=Motor_acceleration_temperature_limit_inactive, 1=Motor_acceleration_temperature_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Input_voltage_limit</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>0=Input_voltage_limit_inactive, 1=Input_voltage_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>IGBT_temp_limit</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>0=IGBT_temperature_limit_inactive, 1=IGBT_temperature_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>IGBT_accel_limit</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>0=IGBT_acceleration_temperature_limit_inactive, 1=IGBT_acceleration_temperature_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Drive_enable_limit</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>0=Drive_enable_limit_inactive, 1=Drive_enable_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>DC_current_limit</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>0=DC_current_limit_active, 1=DC_current_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Capacitor_temp_limit</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>0=Capacitor_temperature_limit_inactive, 1=Capacitor_temperature_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Power_limit</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>0=Power_limit_inactive, 1=Power_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>RPM_max_limit</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>0=RPM_maximum_limit_inactive, 1=RPM_maximum_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>RPM_min_limit</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>0=RPM_minimum_limit_inactive, 1=RPM_minimum_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>CAN_map_version</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetDriveEnable</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x494</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>CMD_DriveEnable</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>1=Drive allowed, 0=Drive_not_allowed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetAcCurrent</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x354</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetAcCurrent</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x374</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetERPM</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x394</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetSpeed</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>-2147480000</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>2147480000</v>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>ERPM</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetPosition</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x3b4</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetPosition</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>360</v>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetRelCurrent</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x3d4</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetRelativeCurrent</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetRelBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x3f4</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargeRelativeBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetMaxAcCurrent</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x414</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxAcCurrent</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="J79" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80"/>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetMaxAcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x434</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxAcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetMaxDcCurrent</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x454</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxDcCurrent</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88"/>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Message: HV500_SetMaxDcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x474</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): HV500_commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxDcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="J91" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K91" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3133,7 +6081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -4840,7 +4840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,6 +6075,656 @@
           <t>5=GO_SIGNAL, 7=GO_SIGNAL_2, 0=EMERGENCY</t>
         </is>
       </c>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_F_SIG1</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1be</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>ST_ANGLE</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_R</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_L</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_F_SIG2</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1c8</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>SPD_LEFT</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>SPD_RIGHT</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53"/>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_R_SIG1</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x222</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>BRK_PRESS</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="n"/>
+      <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_R</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_L</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="n"/>
+      <c r="I58" s="3" t="n"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59"/>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_R_SIG2</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x22c</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>SPD_LEFT</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>SPD_RIGHT</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Autonomous" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="hv500_can2_map_v23_SID" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Autonomous_temporary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DataDBC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DataDBC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Autonomous_temporary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4840,1903 +4840,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="92" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Message: ACU_MS</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x51</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): ACU</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Mission_Select</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>0=Manual, 1=Acceleration, 2=Skidpad, 3=Trackdrive, 4=Braketest, 5=Inspection, 6=Autocross</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Message: JETSON_MS</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x61</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): JETSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Mission_Select</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>0=Manual, 1=Acceleration, 2=Skidpadd, 3=Trackdrive, 4=Braketest, 5=Inspection, 6=Autocross</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Message: VCU_RPM</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x510</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): VCU</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Message: Target_RPM</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x500</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): JETSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16"/>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Message: ACU_IGN</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x71</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): ACU</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>IGN</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>0=OFF, 1=ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>ASMS</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="inlineStr">
-        <is>
-          <t>0=OFF, 1=ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Emergency</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t>1=Emergency_ON, 0=Emergency_OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>EBS_Pressure_Front</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>EBS_Pressure_Rear</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24"/>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Message: RD_JETSON</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x512</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): ACU</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="n"/>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>0=OFF, 1=ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Message: AS_STATE</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x502</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): JETSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>1=OFF, 2=Ready, 3=Driving, 4=Emergency, 5=Finish</t>
-        </is>
-      </c>
-    </row>
-    <row r="32"/>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Message: VCU_HV</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x81</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): VCU</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>HV</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
-      <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>0=hv off, 9=hv on, 10=contactor error</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Brake_pressure_Front</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Brake_pressure_Rear</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="inlineStr"/>
-    </row>
-    <row r="38"/>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Message: RES</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x191</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): RES</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>SIGNAL</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="n"/>
-      <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="n"/>
-      <c r="K41" s="3" t="inlineStr">
-        <is>
-          <t>5=GO_SIGNAL, 7=GO_SIGNAL_2, 0=EMERGENCY</t>
-        </is>
-      </c>
-    </row>
-    <row r="42"/>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Message: DYN_F_SIG1</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x1be</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): DYN_F</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>ST_ANGLE</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="n"/>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>SUSP_R</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n"/>
-      <c r="I46" s="3" t="n"/>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>SUSP_L</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="n"/>
-      <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr"/>
-    </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Message: DYN_F_SIG2</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x1c8</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): DYN_F</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>SPD_LEFT</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>km/h</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>SPD_RIGHT</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="n"/>
-      <c r="I52" s="3" t="n"/>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>km/h</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr"/>
-    </row>
-    <row r="53"/>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Message: DYN_R_SIG1</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x222</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): DYN_R</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>BRK_PRESS</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="n"/>
-      <c r="I56" s="3" t="n"/>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="K56" s="3" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>SUSP_R</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C57" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="n"/>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="K57" s="3" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>SUSP_L</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="n"/>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="K58" s="3" t="inlineStr"/>
-    </row>
-    <row r="59"/>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Message: DYN_R_SIG2</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x22c</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): DYN_R</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>SPD_LEFT</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="n"/>
-      <c r="I62" s="3" t="n"/>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>km/h</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>SPD_RIGHT</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3" t="n"/>
-      <c r="I63" s="3" t="n"/>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>km/h</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9155,4 +7258,2139 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="92" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_MS</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x51</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Mission_Select</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>0=Manual, 1=Acceleration, 2=Skidpad, 3=Trackdrive, 4=Braketest, 5=Inspection, 6=Autocross</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Message: JETSON_MS</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x61</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Mission_Select</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0=Manual, 1=Acceleration, 2=Skidpadd, 3=Trackdrive, 4=Braketest, 5=Inspection, 6=Autocross</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_RPM</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x510</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Message: Target_RPM</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x500</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Speed_actual</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>Km/h</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Speed_target</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Km/h</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Steering_angle_actual</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Steering_angle_target</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_IGN</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x71</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>IGN</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>ASMS</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Emergency</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>1=Emergency_ON, 0=Emergency_OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Message: RD_JETSON</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x512</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Message: AS_STATE</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x502</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>1=OFF, 2=Ready, 3=Driving, 4=Emergency, 5=Finish</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x81</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>HV</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>0=hv off, 9=hv on, 10=contactor error</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Brake_pressure_Front</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Brake_pressure_Rear</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Message: RES</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x191</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): RES</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>SIGNAL</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>5=GO_SIGNAL, 7=GO_SIGNAL_2, 0=EMERGENCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_F_SIG1</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1be</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>ST_ANGLE</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_R</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_L</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_F_SIG2</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1c8</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>SPD_LEFT</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>SPD_RIGHT</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54"/>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_R_SIG1</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x222</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>BRK_PRESS</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_R</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="n"/>
+      <c r="I58" s="3" t="n"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>SUSP_L</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="K59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Message: DYN_R_SIG2</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x22c</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DYN_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>SPD_LEFT</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>SPD_RIGHT</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Message: ASF_SIGNALS</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x511</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>EBS_Pressure_Tank_Front</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n"/>
+      <c r="I68" s="3" t="n"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>EBS_Pressure_Tank_Rear</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Brake_Pressure_Front</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n"/>
+      <c r="I70" s="3" t="n"/>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Brake_Pressure_Rear</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Autonomous" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="hv500_can2_map_v23_SID" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DataDBC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Autonomous_temporary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AutonomousBus" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DataDBC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Autonomous_temporary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4840,6 +4841,6754 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K216"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="41" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="758" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: AS_DynamicsDL_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x500</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Speed_Actual</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Speed_Target</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Steering_Angle_Actual</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>-64</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Steering_Angle_Target</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>-64</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Brake_Hydraulic_Actual</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Brake_Hydraulic_Target</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Motor_Moment_Actual</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Motor_Moment_Target</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Message: AS_DynamicsDL_2</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x501</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Accelaration_Longitudinal</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.001953</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>-63.9959</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>63.994</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>m/s^2</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Accelaration_Lateral</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.001953</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>-63.9959</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>63.994</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>m/s^2</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Yaw_Rate</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.007813000000000001</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>-256.016</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>256.009</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> /s</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_ERPM_DUTY_VOLTAGE</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1414</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Actual_ERPM</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>-214748000</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>214748000</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>ERPM</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Duty</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Actual_InputVoltage</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>-32768</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>32767</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_AC_DC_current</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1434</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Actual_ACCurrent</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>Apk</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Actual_DCCurrent</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_Temperatures</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1454</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Actual_TempController</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Actual_TempMotor</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>-3276</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>3276</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Actual_FaultCode</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>10=ANALOG_INPUT_ERROR_â€“_Redundant_output_out_of_range, 9=CAN_COMMAND_ERROR_-_CAN_message_received_contains_parameter_out_of_boundaries, 8=SENSOR_GENERAL_FAULT_-_An_error_occurred_while_processing_the_sensor_signals, 7=SENSOR_WIRE_FAULT_-_Something_went_wrong_with_the_sensor_differential_signals, 6=MOTOR_OVERTEMPERATURE_-_The_motor_temperature_is_higher_than_the_set_maximum, 5=CONTROLLER_OVERTEMPERATURE_-_The_controller_temperature_is_higher_than_the_set_maximum, 4=ABSOLUTE_MAX_OVERCURRENT_-_The_AC_current_is_higher_than_the_set_absolute_maximum_current, 3=DRV_ERROR_-_Transistor_or_transistor_drive_error, 2=UNDERVOLTAGE_-_The_input_voltage_is_lower_than_the_set_minimum, 1=OVERVOLTAGE_-_The_input_voltage_is_higher_than_the_set_maximum, 0=NO_FAULT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_FOC</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1474</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Actual_FOC_id</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>-3600</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>3600</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>Apk</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Actual_FOC_iq</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>-3600</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>3600</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>Apk</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_MISC</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1494</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Throttle</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Actual_Brake</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_4</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>1=Output_4_enabled, 0=Output_4_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_3</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>1=Output_3_enabled, 0=Output_3_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_2</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>1=Output_2_enabled, 0=Output_2_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Digital_output_1</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>1=Output_1_enabled, 0=Output_1_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_4</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>1=Input_4_enabled, 0=Input_4_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_3</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>1=Input_3_enabled, 0=Input_3_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_2</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>1=Input_2_enabled, 0=Input_2_enabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Digital_input_1</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>1=Input_1_enabled, 0=Input_1_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Drive_enable</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>1=Drive_enabled, 0=Drive_disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Motor_temp_limit</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="inlineStr">
+        <is>
+          <t>1=Motor_temperature_limit_active, 0=Motor_temperature_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Motor_accel_limit</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>1=Motor_acceleration_temperature_limit_active, 0=Motor_acceleration_temperature_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Input_voltage_limit</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>1=Input_voltage_limit_active, 0=Input_voltage_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>IGBT_temp_limit</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>1=IGBT_temperature_limit_active, 0=IGBT_temperature_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>IGBT_accel_limit</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="inlineStr">
+        <is>
+          <t>1=IGBT_acceleration_temperature_limit_inactive, 0=IGBT_acceleration_temperature_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Drive_enable_limit</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>1=Drive_enable_limit_active, 0=Drive_enable_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>DC_current_limit</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="inlineStr">
+        <is>
+          <t>1=DC_current_limit_inactive, 0=DC_current_limit_active</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Capacitor_temp_limit</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="inlineStr">
+        <is>
+          <t>1=Capacitor_temperature_limit_active, 0=Capacitor_temperature_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Power_limit</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="inlineStr">
+        <is>
+          <t>1=Power_limit_active, 0=Power_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>RPM_max_limit</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>1=RPM_maximum_limit_active, 0=RPM_maximum_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>RPM_min_limit</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>1=RPM_minimum_limit_active, 0=RPM_minimum_limit_inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>CAN_map_version</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetDriveEnable</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1894</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>CMD_DriveEnable</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3" t="n"/>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>0=Drive_not_allowed, 1=Drive allowed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69"/>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetAcCurrent</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1754</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetAcCurrent</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1774</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetERPM</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1794</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetSpeed</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>-2147480000</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>2147480000</v>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>ERPM</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetPosition</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x17b4</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetPosition</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>360</v>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr"/>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetRelCurrent</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x17d4</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargetRelativeCurrent</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetRelBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x17f4</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>CMD_TargeRelativeBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93"/>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetMaxAcCurrent</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1814</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxAcCurrent</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K96" s="3" t="inlineStr"/>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetMaxAcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1834</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxAcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K100" s="3" t="inlineStr"/>
+    </row>
+    <row r="101"/>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetMaxDcCurrent</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1854</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxDcCurrent</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="J104" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K104" s="3" t="inlineStr"/>
+    </row>
+    <row r="105"/>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_HV500_SetMaxDcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1874</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>CMD_MaxDcBrakeCurrent</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K108" s="3" t="inlineStr"/>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Message: AS_System_Status</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x502</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>AS_State</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J112" s="3" t="n"/>
+      <c r="K112" s="3" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>EBS_State</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" s="3" t="n"/>
+      <c r="K113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>AMI_State</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J114" s="3" t="n"/>
+      <c r="K114" s="3" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Stearing_State</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" s="3" t="n"/>
+      <c r="K115" s="3" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Service_Brake_State</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" s="3" t="n"/>
+      <c r="K116" s="3" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Lap_Counter</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J117" s="3" t="n"/>
+      <c r="K117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Cones_Count_Actual</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J118" s="3" t="n"/>
+      <c r="K118" s="3" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Cones_Count_All</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J119" s="3" t="n"/>
+      <c r="K119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120"/>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_HEARTBEAT</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x703</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J123" s="3" t="n"/>
+      <c r="K123" s="3" t="inlineStr"/>
+    </row>
+    <row r="124"/>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>Message: ASF_SIGNALS</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x511</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Pneumatic_Braking_EBS_FRONT</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>655350</v>
+      </c>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="K127" s="3" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Pneumatic_Braking_BRAKE_FRONT</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>655350</v>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="K128" s="3" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Pneumatic_Braking_EBS_BACK</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>655350</v>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="K129" s="3" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>Pneumatic_Braking_BRAKE_BACK</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>655350</v>
+      </c>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="K130" s="3" t="inlineStr"/>
+    </row>
+    <row r="131"/>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Message: NMT</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x0</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J134" s="3" t="n"/>
+      <c r="K134" s="3" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Target_Node</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J135" s="3" t="n"/>
+      <c r="K135" s="3" t="inlineStr"/>
+    </row>
+    <row r="136"/>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Message: RES_PDO</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x191</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): RES</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Button_State</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J139" s="3" t="n"/>
+      <c r="K139" s="3" t="inlineStr"/>
+    </row>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_Heartbeats</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x2000</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3" t="n"/>
+      <c r="I143" s="3" t="n"/>
+      <c r="J143" s="3" t="n"/>
+      <c r="K143" s="3" t="inlineStr"/>
+    </row>
+    <row r="144"/>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_TCU_Contactors</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1461</t>
+        </is>
+      </c>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>Contactors_State</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J147" s="3" t="n"/>
+      <c r="K147" s="3" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>Contactors_Error</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J148" s="3" t="n"/>
+      <c r="K148" s="3" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous_Ignition</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J149" s="3" t="n"/>
+      <c r="K149" s="3" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>Pre_Charge</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C150" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J150" s="3" t="n"/>
+      <c r="K150" s="3" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>TCU_State</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J151" s="3" t="n"/>
+      <c r="K151" s="3" t="inlineStr"/>
+    </row>
+    <row r="152"/>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>Message: Dynamics_REAR</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x280</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamics</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_RL</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J155" s="3" t="n"/>
+      <c r="K155" s="3" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_RR</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J156" s="3" t="n"/>
+      <c r="K156" s="3" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>Suspensio_Position_RL</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J157" s="3" t="n"/>
+      <c r="K157" s="3" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>Suspensio_Position_RR</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J158" s="3" t="n"/>
+      <c r="K158" s="3" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>Dynamics_State</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J159" s="3" t="n"/>
+      <c r="K159" s="3" t="inlineStr"/>
+    </row>
+    <row r="160"/>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Message: Dynamics_FRONT</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x2a0</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamics</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_FL</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J163" s="3" t="n"/>
+      <c r="K163" s="3" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_FR</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J164" s="3" t="n"/>
+      <c r="K164" s="3" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>Suspensio_Position_FL</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J165" s="3" t="n"/>
+      <c r="K165" s="3" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>Suspensio_Position_FR</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J166" s="3" t="n"/>
+      <c r="K166" s="3" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>Dynamics_State</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J167" s="3" t="n"/>
+      <c r="K167" s="3" t="inlineStr"/>
+    </row>
+    <row r="168"/>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Message: RES_EM</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x91</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): RES</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>ERROR_State</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J171" s="3" t="n"/>
+      <c r="K171" s="3" t="inlineStr"/>
+    </row>
+    <row r="172"/>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>Message: MAXON_Error</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x85</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>ERROR_State</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J175" s="3" t="n"/>
+      <c r="K175" s="3" t="inlineStr"/>
+    </row>
+    <row r="176"/>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_ERROR</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x83</t>
+        </is>
+      </c>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>ERROR_State</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J179" s="3" t="n"/>
+      <c r="K179" s="3" t="inlineStr"/>
+    </row>
+    <row r="180"/>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>Message: SYNC</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x80</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>Counter</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J183" s="3" t="n"/>
+      <c r="K183" s="3" t="inlineStr"/>
+    </row>
+    <row r="184"/>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>Message: BrakeLight</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x437</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamics</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>Rear_Brake_Pressure</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J187" s="3" t="n"/>
+      <c r="K187" s="3" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="inlineStr">
+        <is>
+          <t>BrakeLight_State</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J188" s="3" t="n"/>
+      <c r="K188" s="3" t="inlineStr"/>
+    </row>
+    <row r="189"/>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>Message: MAXON_PDO_0</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x185</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t>Status_Word</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J192" s="3" t="n"/>
+      <c r="K192" s="3" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>Control_Word</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C193" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J193" s="3" t="n"/>
+      <c r="K193" s="3" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>Current_Actual</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C194" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" s="3" t="n">
+        <v>4294970000</v>
+      </c>
+      <c r="J194" s="3" t="n"/>
+      <c r="K194" s="3" t="inlineStr"/>
+    </row>
+    <row r="195"/>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>Message: MAXON_PDO_3</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x385</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>Status_Word</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J198" s="3" t="n"/>
+      <c r="K198" s="3" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>Position_Actual_Value</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" s="3" t="n">
+        <v>4294970000</v>
+      </c>
+      <c r="J199" s="3" t="n"/>
+      <c r="K199" s="3" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>Torque_Actual_Value</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J200" s="3" t="n"/>
+      <c r="K200" s="3" t="inlineStr"/>
+    </row>
+    <row r="201"/>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>Message: MAXON_PDO_4</t>
+        </is>
+      </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x485</t>
+        </is>
+      </c>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>STATUS_WORD</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J204" s="3" t="n"/>
+      <c r="K204" s="3" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>Velocicty_Actual</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F205" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" s="3" t="n">
+        <v>4294970000</v>
+      </c>
+      <c r="J205" s="3" t="n"/>
+      <c r="K205" s="3" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>PWM_DutyCicle_Actual</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J206" s="3" t="n"/>
+      <c r="K206" s="3" t="inlineStr"/>
+    </row>
+    <row r="207"/>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>Message: MAXON_PDO_3_RX</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x405</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>Control_Word</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J210" s="3" t="n"/>
+      <c r="K210" s="3" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>Target_Position</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" s="3" t="n">
+        <v>4294970000</v>
+      </c>
+      <c r="J211" s="3" t="n"/>
+      <c r="K211" s="3" t="inlineStr"/>
+    </row>
+    <row r="212"/>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_PDO_TX_2</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x283</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>Hydra_Front_Brake</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" s="3" t="n">
+        <v>4294970000</v>
+      </c>
+      <c r="J215" s="3" t="n"/>
+      <c r="K215" s="3" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D216" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F216" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J216" s="3" t="n"/>
+      <c r="K216" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7260,7 +14009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -15283,7 +15283,7 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x1be</t>
+          <t>ID: 0x446</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -15370,7 +15370,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>0</v>
@@ -15405,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G47" s="3" t="n">
         <v>0</v>
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G48" s="3" t="n">
         <v>0</v>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x1c8</t>
+          <t>ID: 0x456</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
@@ -15550,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="3" t="n">
         <v>0</v>
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G53" s="3" t="n">
         <v>0</v>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x222</t>
+          <t>ID: 0x546</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G57" s="3" t="n">
         <v>0</v>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G58" s="3" t="n">
         <v>0</v>
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G59" s="3" t="n">
         <v>0</v>
@@ -15788,7 +15788,7 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x22c</t>
+          <t>ID: 0x556</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G63" s="3" t="n">
         <v>0</v>
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G64" s="3" t="n">
         <v>0</v>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11,7 +11,8 @@
     <sheet name="hv500_can2_map_v23_SID" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AutonomousBus" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="DataDBC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Autonomous_temporary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FSG_dbc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Autonomous_temporary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14015,6 +14016,1126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="143" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: DV_Driving_dynamycs_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x500</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Speed_actual</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Km/h</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Speed_target</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Km/h</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Steering_angle_actual</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Steering_angle_target</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Brake_hydr_actua</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Brake_Hydr_target</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Motor_moment_actual</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Motor_momnet_target</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Message: DV_driving_dynamics_2</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x501</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Acceleration_longitudinal</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>m/s^2</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Acceleration_lateral</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>m/s^2</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Yaw_rate</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>º/s</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Message: DV_system_status</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x502</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>AS_status</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>1=OFF, 2=READY, 3=DRIVING, 4=EMERGENCY, 5=FINISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>ASB_EBS_STATE</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1=ASB_EBS_state_deactivated, 2=ASB_EBS_state_initial_checkup_passed, 3=ASB_EBS_state_activated </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>AMI_state</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>1=AMI_state_acceleration, 2=AMI_state_skidpad , 3=AMI_state_trackdrive, 4=AMI_state_braketest, 5=AMI_state_inspection , 6=AMI_state_autocross</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Steering_state</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>ASB_redundancy_state</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>1=ASB_redundancy_state_deactivated, 2=ASB_redundancy_state_engaged , 3=ASB_redundancy_state_initial_checkup_passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Lap_counter</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Cones_count_actual</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Cones_count_all</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Message: ASF_VARS</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x511</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>EBS_pressure_tank_front</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>EBS_pressure_tank_rear</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Brake_pressure_front</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Brake_pressure_rear</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>40</v>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>ï¿½C</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>40</v>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>ï¿½C</t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0</v>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>40</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>40</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0</v>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>40</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>40</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0</v>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11590,7 +11590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14004,6 +14004,120 @@
       </c>
       <c r="J76" s="3" t="n"/>
       <c r="K76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Message: PDM</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x69</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>LV_Voltage</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11590,7 +11590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11598,7 +11598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
@@ -14118,6 +14118,116 @@
         </is>
       </c>
       <c r="K80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_5</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x25</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>brake_pressure_front</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="n"/>
+      <c r="I84" s="3" t="n"/>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>Bar</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Autonomous" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="hv500_can2_map_v23_SID" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AutonomousBus" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DataDBC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FSG_dbc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="AutonomousBus" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DataDBC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FSG_dbc" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="maxon" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Autonomous_temporary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -1895,2953 +1895,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="758" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_ERPM_DUTY_VOLTAGE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Actual_ERPM</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>-214748000</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>214748000</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>ERPM</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Actual_Duty</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>-3276</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>3276</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Actual_InputVoltage</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>32767</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_AC_DC_current</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x34</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Actual_ACCurrent</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>-3276</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>3276</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>Apk</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Actual_DCCurrent</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>-3276</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>3276</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11"/>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_Temperatures</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x54</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Actual_TempController</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>-3276</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>3276</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Actual_TempMotor</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>-3276</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>3276</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Actual_FaultCode</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>255</v>
-      </c>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>0=NO_FAULT, 1=OVERVOLTAGE_-_The_input_voltage_is_higher_than_the_set_maximum, 2=UNDERVOLTAGE_-_The_input_voltage_is_lower_than_the_set_minimum, 3=DRV_ERROR_-_Transistor_or_transistor_drive_error, 4=ABSOLUTE_MAX_OVERCURRENT_-_The_AC_current_is_higher_than_the_set_absolute_maximum_current, 5=CONTROLLER_OVERTEMPERATURE_-_The_controller_temperature_is_higher_than_the_set_maximum, 6=MOTOR_OVERTEMPERATURE_-_The_motor_temperature_is_higher_than_the_set_maximum, 7=SENSOR_WIRE_FAULT_-_Something_went_wrong_with_the_sensor_differential_signals, 8=SENSOR_GENERAL_FAULT_-_An_error_occurred_while_processing_the_sensor_signals, 9=CAN_COMMAND_ERROR_-_CAN_message_received_contains_parameter_out_of_boundaries, 10=ANALOG_INPUT_ERROR_â€“_Redundant_output_out_of_range</t>
-        </is>
-      </c>
-    </row>
-    <row r="17"/>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_FOC</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x74</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Actual_FOC_id</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>-2147480000</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>2147480000</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>Apk</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Actual_FOC_iq</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>-2147480000</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>2147480000</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>Apk</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_MISC</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x94</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Actual_Throttle</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>-128</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Actual_Brake</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>-128</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Digital_output_4</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>0=Output_4_disabled, 1=Output_4_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Digital_output_3</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3" t="n"/>
-      <c r="K28" s="3" t="inlineStr">
-        <is>
-          <t>0=Output_3_disabled, 1=Output_3_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Digital_output_2</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr">
-        <is>
-          <t>0=Output_2_disabled, 1=Output_2_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Digital_output_1</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3" t="n"/>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>0=Output_1_disabled, 1=Output_1_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Digital_input_4</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>0=Input_4_disabled, 1=Input_4_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Digital_input_3</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="inlineStr">
-        <is>
-          <t>0=Input_3_disabled, 1=Input_3_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Digital_input_2</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3" t="n"/>
-      <c r="K33" s="3" t="inlineStr">
-        <is>
-          <t>0=Input_2_enabled, 1=Input_2_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Digital_input_1</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3" t="n"/>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>0=Input_1_disabled, 1=Input_1_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>Drive_enable</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>0=Drive_disabled, 1=Drive_enabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Motor_temp_limit</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>0=Motor_temperature_limit_inactive, 1=Motor_temperature_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Motor_accel_limit</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>0=Motor_acceleration_temperature_limit_inactive, 1=Motor_acceleration_temperature_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Input_voltage_limit</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>0=Input_voltage_limit_inactive, 1=Input_voltage_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>IGBT_temp_limit</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>0=IGBT_temperature_limit_inactive, 1=IGBT_temperature_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>IGBT_accel_limit</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3" t="n"/>
-      <c r="K40" s="3" t="inlineStr">
-        <is>
-          <t>0=IGBT_acceleration_temperature_limit_inactive, 1=IGBT_acceleration_temperature_limit_inactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Drive_enable_limit</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3" t="n"/>
-      <c r="K41" s="3" t="inlineStr">
-        <is>
-          <t>0=Drive_enable_limit_inactive, 1=Drive_enable_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>DC_current_limit</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3" t="n"/>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>0=DC_current_limit_active, 1=DC_current_limit_inactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>Capacitor_temp_limit</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>0=Capacitor_temperature_limit_inactive, 1=Capacitor_temperature_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Power_limit</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="inlineStr">
-        <is>
-          <t>0=Power_limit_inactive, 1=Power_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>RPM_max_limit</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="inlineStr">
-        <is>
-          <t>0=RPM_maximum_limit_inactive, 1=RPM_maximum_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>RPM_min_limit</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3" t="n"/>
-      <c r="K46" s="3" t="inlineStr">
-        <is>
-          <t>0=RPM_minimum_limit_inactive, 1=RPM_minimum_limit_active</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>CAN_map_version</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>63</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>255</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr"/>
-    </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetDriveEnable</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x494</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>CMD_DriveEnable</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>1=Drive allowed, 0=Drive_not_allowed</t>
-        </is>
-      </c>
-    </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetAcCurrent</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x354</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>CMD_TargetAcCurrent</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="I55" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr"/>
-    </row>
-    <row r="56"/>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x374</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>CMD_TargetBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K59" s="3" t="inlineStr"/>
-    </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetERPM</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x394</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>CMD_TargetSpeed</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3" t="n">
-        <v>-2147480000</v>
-      </c>
-      <c r="I63" s="3" t="n">
-        <v>2147480000</v>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>ERPM</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr"/>
-    </row>
-    <row r="64"/>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetPosition</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x3b4</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>CMD_TargetPosition</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C67" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3" t="n">
-        <v>360</v>
-      </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>degree</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr"/>
-    </row>
-    <row r="68"/>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetRelCurrent</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x3d4</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>CMD_TargetRelativeCurrent</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I71" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J71" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K71" s="3" t="inlineStr"/>
-    </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetRelBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x3f4</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>CMD_TargeRelativeBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J75" s="3" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K75" s="3" t="inlineStr"/>
-    </row>
-    <row r="76"/>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetMaxAcCurrent</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x414</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>CMD_MaxAcCurrent</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C79" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E79" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="J79" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K79" s="3" t="inlineStr"/>
-    </row>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetMaxAcBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x434</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>CMD_MaxAcBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C83" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="J83" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K83" s="3" t="inlineStr"/>
-    </row>
-    <row r="84"/>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetMaxDcCurrent</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x454</t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>CMD_MaxDcCurrent</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E87" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3" t="n">
-        <v>350</v>
-      </c>
-      <c r="J87" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K87" s="3" t="inlineStr"/>
-    </row>
-    <row r="88"/>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Message: HV500_SetMaxDcBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x474</t>
-        </is>
-      </c>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): HV500_commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>CMD_MaxDcBrakeCurrent</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C91" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E91" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="n">
-        <v>350</v>
-      </c>
-      <c r="J91" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K91" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11584,7 +8637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11619,7 +8672,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x20</t>
+          <t>ID: 0x100</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11846,7 +8899,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x21</t>
+          <t>ID: 0x101</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -12061,7 +9114,7 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x22</t>
+          <t>ID: 0x102</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -12346,7 +9399,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x23</t>
+          <t>ID: 0x103</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -12569,7 +9622,7 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x24</t>
+          <t>ID: 0x104</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -14019,7 +11072,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Sender(s): Unknown</t>
+          <t>Sender(s): PDM</t>
         </is>
       </c>
     </row>
@@ -14128,12 +11181,12 @@
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x25</t>
+          <t>ID: 0x105</t>
         </is>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Sender(s): Unknown</t>
+          <t>Sender(s): VCU</t>
         </is>
       </c>
     </row>
@@ -14234,7 +11287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15348,6 +12401,1097 @@
         </is>
       </c>
       <c r="K34" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="111" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_mode_rx</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x205</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Control_word</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>6=shutdown, 15=new_position_bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_position_rx</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x405</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>control_word</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>31=absolute_position, 63=absolute_position_immediatly, 127=relative position_immediatly, 95=relative_position</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>target_position</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_profile_rx</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x305</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>profile_velocity</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>profile_acceleration</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_status_tx</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x185</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>control_word</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>current_actual_value</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_status2_tx</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x285</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>error_code</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>current_average_value</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_position_tx</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x385</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>actual_position</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>actual_torque</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_velocity_tx</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x485</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>actual_velocity</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>pdw_duty_cicle_actual_value</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11,8 +11,7 @@
     <sheet name="AutonomousBus" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="DataDBC" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FSG_dbc" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="maxon" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Autonomous_temporary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Autonomous_temporary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12413,1098 +12412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="29" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="111" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_mode_rx</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x205</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Control_word</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>6=shutdown, 15=new_position_bit</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_position_rx</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x405</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>control_word</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>31=absolute_position, 63=absolute_position_immediatly, 127=relative position_immediatly, 95=relative_position</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>target_position</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_profile_rx</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x305</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>profile_velocity</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>profile_acceleration</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14"/>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_status_tx</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x185</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>status_word</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>control_word</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>current_actual_value</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_status2_tx</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x285</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>error_code</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>status_word</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>current_average_value</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n"/>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_position_tx</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x385</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>status_word</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
-      <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>actual_position</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="n"/>
-      <c r="I30" s="3" t="n"/>
-      <c r="J30" s="3" t="n"/>
-      <c r="K30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>actual_torque</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32"/>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Message: Maxon_velocity_tx</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x485</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>status_word</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
-      <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>actual_velocity</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>pdw_duty_cicle_actual_value</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13514,7 +12422,7 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -15628,6 +14536,205 @@
       </c>
       <c r="K71" s="3" t="inlineStr"/>
     </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_IGN_R2D</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x600</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>ignition_manual</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>r2d_manual</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="n"/>
+      <c r="I76" s="3" t="n"/>
+      <c r="J76" s="3" t="n"/>
+      <c r="K76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>ignition_auto</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3" t="n"/>
+      <c r="I77" s="3" t="n"/>
+      <c r="J77" s="3" t="n"/>
+      <c r="K77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>r2d_auto</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="n"/>
+      <c r="I78" s="3" t="n"/>
+      <c r="J78" s="3" t="n"/>
+      <c r="K78" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -12412,7 +12412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12430,7 +12430,7 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="92" customWidth="1" min="11" max="11"/>
+    <col width="94" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Sender(s): Unknown</t>
+          <t>Sender(s): VCU</t>
         </is>
       </c>
     </row>
@@ -14735,6 +14735,116 @@
       <c r="J78" s="3" t="n"/>
       <c r="K78" s="3" t="inlineStr"/>
     </row>
+    <row r="79"/>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU_status</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x5</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>ACU_State</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="n"/>
+      <c r="I82" s="3" t="n"/>
+      <c r="J82" s="3" t="n"/>
+      <c r="K82" s="3" t="inlineStr">
+        <is>
+          <t>0=INIT, 1=MS, 2=INIT_SEQ, 3=READY, 4=DRIVING, 5=EBS_ERROR, 6=EMERGENCY, 7=FINISHED, 8=MANUAL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -14744,7 +14744,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x5</t>
+          <t>ID: 0x700</t>
         </is>
       </c>
       <c r="C80" s="1" t="inlineStr">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -12412,7 +12412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12422,7 +12422,7 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -12430,7 +12430,7 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="94" customWidth="1" min="11" max="11"/>
+    <col width="111" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14735,113 +14735,144 @@
       <c r="J78" s="3" t="n"/>
       <c r="K78" s="3" t="inlineStr"/>
     </row>
-    <row r="79"/>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>shutdown_signal</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80"/>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>Message: ACU_status</t>
         </is>
       </c>
-      <c r="B80" s="1" t="inlineStr">
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>ID: 0x700</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G81" s="2" t="inlineStr">
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="H82" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I81" s="2" t="inlineStr">
+      <c r="I82" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
+      <c r="J82" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K81" s="2" t="inlineStr">
+      <c r="K82" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>ACU_State</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3" t="n">
+      <c r="B83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E82" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="n"/>
-      <c r="I82" s="3" t="n"/>
-      <c r="J82" s="3" t="n"/>
-      <c r="K82" s="3" t="inlineStr">
-        <is>
-          <t>0=INIT, 1=MS, 2=INIT_SEQ, 3=READY, 4=DRIVING, 5=EBS_ERROR, 6=EMERGENCY, 7=FINISHED, 8=MANUAL</t>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="inlineStr">
+        <is>
+          <t>0=INIT, 1=MS, 2=JETSON_WAITING, 3=IBIT_SEQ, 4=READY, 5=DRIVING, 6=EBS_EROR, 7=EMERGENCY, 8=FINISHED, 9=MANUAL</t>
         </is>
       </c>
     </row>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11139,14 +11139,14 @@
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>16</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Motorola</t>
         </is>
       </c>
       <c r="E80" s="3" t="b">
@@ -12412,7 +12412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12430,7 +12430,7 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="111" customWidth="1" min="11" max="11"/>
+    <col width="123" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14766,111 +14766,146 @@
       <c r="J79" s="3" t="n"/>
       <c r="K79" s="3" t="inlineStr"/>
     </row>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>vcu_state</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="n"/>
+      <c r="I80" s="3" t="n"/>
+      <c r="J80" s="3" t="n"/>
+      <c r="K80" s="3" t="inlineStr">
+        <is>
+          <t>1=INIT, 2=SHUTDOWN, 3=STANDBY, 4=PRECHARGE, 5=WAIT_R2D_MANUAL, 6=WAIT_R2D_AUTO, 7=READY_MANUAL, 8=READY_AUTO, 9=EMERGENCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Message: ACU_status</t>
         </is>
       </c>
-      <c r="B81" s="1" t="inlineStr">
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>ID: 0x700</t>
         </is>
       </c>
-      <c r="C81" s="1" t="inlineStr">
+      <c r="C82" s="1" t="inlineStr">
         <is>
           <t>Sender(s): ACU</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G82" s="2" t="inlineStr">
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="H83" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I82" s="2" t="inlineStr">
+      <c r="I83" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
+      <c r="J83" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K82" s="2" t="inlineStr">
+      <c r="K83" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>ACU_State</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" s="3" t="n">
+      <c r="B84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="n"/>
-      <c r="I83" s="3" t="n"/>
-      <c r="J83" s="3" t="n"/>
-      <c r="K83" s="3" t="inlineStr">
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="n"/>
+      <c r="I84" s="3" t="n"/>
+      <c r="J84" s="3" t="n"/>
+      <c r="K84" s="3" t="inlineStr">
         <is>
           <t>0=INIT, 1=MS, 2=JETSON_WAITING, 3=IBIT_SEQ, 4=READY, 5=DRIVING, 6=EBS_EROR, 7=EMERGENCY, 8=FINISHED, 9=MANUAL</t>
         </is>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>0</v>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -8642,7 +8642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9780,154 +9780,154 @@
       <c r="J35" s="3" t="n"/>
       <c r="K35" s="3" t="inlineStr"/>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>LV_SOC</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3" t="n">
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Message: IMU_</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x60</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): IMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>AccelX_int</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>LV_Voltage</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C37" s="3" t="n">
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>AccelY_dec</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="inlineStr"/>
-    </row>
-    <row r="38"/>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Message: IMU_</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x60</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): IMU</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
+      <c r="C40" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="n"/>
+      <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>AccelX_int</t>
+          <t>AccelZ_int</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
@@ -9951,14 +9951,14 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>AccelY_dec</t>
+          <t>Heatbit</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
@@ -9979,151 +9979,151 @@
       <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>AccelZ_int</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="n"/>
-      <c r="I43" s="3" t="n"/>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="inlineStr"/>
-    </row>
+    <row r="43"/>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Heatbit</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="n"/>
-      <c r="I44" s="3" t="n"/>
-      <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="inlineStr"/>
-    </row>
-    <row r="45"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Message: IMU_1</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x61</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): IMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Message: IMU_1</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x61</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): IMU</t>
-        </is>
-      </c>
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>roll_int</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>pitch_dec</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>roll_int</t>
+          <t>yaw_int</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>16</v>
@@ -10150,14 +10150,14 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>pitch_dec</t>
+          <t>Heartbit</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
@@ -10178,151 +10178,167 @@
       <c r="J49" s="3" t="n"/>
       <c r="K49" s="3" t="inlineStr"/>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>yaw_int</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="inlineStr"/>
-    </row>
+    <row r="50"/>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>Heartbit</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="C51" s="3" t="n">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Message: Dynamic_R</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x80</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamic</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_RL</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Message: Dynamic_R</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x80</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Dynamic</t>
-        </is>
-      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_RR</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Wheel_Speed_RL</t>
+          <t>SusPos_RL</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>8</v>
@@ -10345,11 +10361,11 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>km/h</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr"/>
@@ -10357,11 +10373,11 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Wheel_Speed_RR</t>
+          <t>SusPos_RR</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>8</v>
@@ -10384,11 +10400,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>km/h</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="K56" s="3" t="inlineStr"/>
@@ -10396,11 +10412,11 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>SusPos_RL</t>
+          <t>RR_PC</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>8</v>
@@ -10423,23 +10439,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J57" s="3" t="n"/>
       <c r="K57" s="3" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>SusPos_RR</t>
+          <t>RL_PC</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>8</v>
@@ -10462,23 +10474,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J58" s="3" t="n"/>
       <c r="K58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>RR_PC</t>
+          <t>DY_ST</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>8</v>
@@ -10501,164 +10509,172 @@
         <v>0</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J59" s="3" t="n"/>
       <c r="K59" s="3" t="inlineStr"/>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>RL_PC</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C60" s="3" t="n">
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Message: Dynamic_F</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0xa0</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Dynamic</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_FL</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="J60" s="3" t="n"/>
-      <c r="K60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>DY_ST</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="C61" s="3" t="n">
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Wheel_Speed_FR</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="inlineStr"/>
-    </row>
-    <row r="62"/>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Message: Dynamic_F</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0xa0</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Dynamic</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
+      <c r="C64" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Wheel_Speed_FL</t>
+          <t>SusPos_FL</t>
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>8</v>
@@ -10681,11 +10697,11 @@
         <v>0</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>km/h</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="K65" s="3" t="inlineStr"/>
@@ -10693,11 +10709,11 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Wheel_Speed_FR</t>
+          <t>SusPos_FR</t>
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>8</v>
@@ -10720,11 +10736,11 @@
         <v>0</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>km/h</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr"/>
@@ -10732,11 +10748,11 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>SusPos_FL</t>
+          <t>FR_PC</t>
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>8</v>
@@ -10759,23 +10775,19 @@
         <v>0</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J67" s="3" t="n"/>
       <c r="K67" s="3" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>SusPos_FR</t>
+          <t>FL_PC</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>8</v>
@@ -10798,23 +10810,19 @@
         <v>0</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J68" s="3" t="n"/>
       <c r="K68" s="3" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>FR_PC</t>
+          <t>DY_ST</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>8</v>
@@ -10837,449 +10845,265 @@
         <v>0</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3" t="n"/>
       <c r="K69" s="3" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>FL_PC</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C70" s="3" t="n">
+    <row r="70"/>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Message: DataLogger</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x180</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): DataLogger</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>DL_state</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" s="3" t="n"/>
-      <c r="K70" s="3" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>DY_ST</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="C71" s="3" t="n">
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Recording_State</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3" t="n"/>
-      <c r="K71" s="3" t="inlineStr"/>
-    </row>
-    <row r="72"/>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Message: DataLogger</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x180</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): DataLogger</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="C74" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3" t="n"/>
+      <c r="K74" s="3" t="inlineStr"/>
+    </row>
+    <row r="75"/>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_5</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x105</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H74" s="2" t="inlineStr">
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I74" s="2" t="inlineStr">
+      <c r="I77" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
+      <c r="J77" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K74" s="2" t="inlineStr">
+      <c r="K77" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>DL_state</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3" t="n">
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>brake_pressure_front</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3" t="n"/>
-      <c r="K75" s="3" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>Recording_State</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C76" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3" t="n"/>
-      <c r="K76" s="3" t="inlineStr"/>
-    </row>
-    <row r="77"/>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Message: PDM</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x69</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): PDM</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>LV_Voltage</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C80" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-      <c r="E80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" s="3" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="K80" s="3" t="inlineStr"/>
-    </row>
-    <row r="81"/>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Message: VCU_5</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x105</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): VCU</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>brake_pressure_front</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="n"/>
-      <c r="I84" s="3" t="n"/>
-      <c r="J84" s="3" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="n"/>
+      <c r="I78" s="3" t="n"/>
+      <c r="J78" s="3" t="inlineStr">
         <is>
           <t>Bar</t>
         </is>
       </c>
-      <c r="K84" s="3" t="inlineStr"/>
+      <c r="K78" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -12236,7 +12236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14735,6 +14735,37 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>assi_state</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3" t="n"/>
+      <c r="I85" s="3" t="n"/>
+      <c r="J85" s="3" t="n"/>
+      <c r="K85" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -12236,7 +12236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14766,6 +14766,41 @@
       <c r="J85" s="3" t="n"/>
       <c r="K85" s="3" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Internal_temperature</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3" t="n"/>
+      <c r="I86" s="3" t="n"/>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -12236,7 +12236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14625,155 +14625,151 @@
         </is>
       </c>
     </row>
-    <row r="81"/>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>R2D_button_raw</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="inlineStr"/>
+    </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Ignition_switch_raw</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="n"/>
+      <c r="I82" s="3" t="n"/>
+      <c r="J82" s="3" t="n"/>
+      <c r="K82" s="3" t="inlineStr"/>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Message: ACU_status</t>
         </is>
       </c>
-      <c r="B82" s="1" t="inlineStr">
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>ID: 0x700</t>
         </is>
       </c>
-      <c r="C82" s="1" t="inlineStr">
+      <c r="C84" s="1" t="inlineStr">
         <is>
           <t>Sender(s): ACU</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>Signal Name</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Start Bit</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Length (bits)</t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
         <is>
           <t>Byte Order</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>Signed</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>Factor</t>
         </is>
       </c>
-      <c r="G83" s="2" t="inlineStr">
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>Offset</t>
         </is>
       </c>
-      <c r="H83" s="2" t="inlineStr">
+      <c r="H85" s="2" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="I83" s="2" t="inlineStr">
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
+      <c r="J85" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="K83" s="2" t="inlineStr">
+      <c r="K85" s="2" t="inlineStr">
         <is>
           <t>Choices</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>ACU_State</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="n"/>
-      <c r="I84" s="3" t="n"/>
-      <c r="J84" s="3" t="n"/>
-      <c r="K84" s="3" t="inlineStr">
-        <is>
-          <t>0=INIT, 1=MS, 2=JETSON_WAITING, 3=IBIT_SEQ, 4=READY, 5=DRIVING, 6=EBS_EROR, 7=EMERGENCY, 8=FINISHED, 9=MANUAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>assi_state</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C85" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E85" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3" t="n"/>
-      <c r="I85" s="3" t="n"/>
-      <c r="J85" s="3" t="n"/>
-      <c r="K85" s="3" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Internal_temperature</t>
+          <t>ACU_State</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>8</v>
@@ -14794,12 +14790,277 @@
       </c>
       <c r="H86" s="3" t="n"/>
       <c r="I86" s="3" t="n"/>
-      <c r="J86" s="3" t="inlineStr">
+      <c r="J86" s="3" t="n"/>
+      <c r="K86" s="3" t="inlineStr">
+        <is>
+          <t>0=INIT, 1=MS, 2=JETSON_WAITING, 3=IBIT_SEQ, 4=READY, 5=DRIVING, 6=EBS_EROR, 7=EMERGENCY, 8=FINISHED, 9=MANUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>assi_state</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>Internal_temperature</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3" t="n"/>
+      <c r="I88" s="3" t="n"/>
+      <c r="J88" s="3" t="inlineStr">
         <is>
           <t>º</t>
         </is>
       </c>
-      <c r="K86" s="3" t="inlineStr"/>
+      <c r="K88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Message: VCU_APPS_RAW</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x610</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>APPS_1_raw_bits</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3" t="n"/>
+      <c r="I92" s="3" t="n"/>
+      <c r="J92" s="3" t="n"/>
+      <c r="K92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>APPS_2_raw_bits</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3" t="n"/>
+      <c r="I93" s="3" t="n"/>
+      <c r="J93" s="3" t="n"/>
+      <c r="K93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>delta_raw</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="n"/>
+      <c r="I94" s="3" t="n"/>
+      <c r="J94" s="3" t="n"/>
+      <c r="K94" s="3" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>cpu_temp</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3" t="n"/>
+      <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -12236,7 +12236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12244,7 +12244,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x510</t>
+          <t>ID: 0x509</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -12554,7 +12554,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>RPM</t>
+          <t>rpm_actual</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -12594,7 +12594,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Message: Target_RPM</t>
+          <t>Message: DL_MSG_1</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -13002,7 +13002,7 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x512</t>
+          <t>ID: 0x513</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>ID: 0x502</t>
+          <t>ID: 0x503</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -13499,7 +13499,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Message: DYN_F_SIG1</t>
+          <t>Message: DYN_FRONT_SIG1</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -13679,7 +13679,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Message: DYN_F_SIG2</t>
+          <t>Message: DYN_FRONT_SIG2</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -13824,7 +13824,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Message: DYN_R_SIG1</t>
+          <t>Message: DYN_REAR_SIG1</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -14004,7 +14004,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Message: DYN_R_SIG2</t>
+          <t>Message: DYN_REAR_SIG2</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -15062,6 +15062,1753 @@
       <c r="J95" s="3" t="n"/>
       <c r="K95" s="3" t="inlineStr"/>
     </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>flag_digital_bspd</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3" t="n"/>
+      <c r="I96" s="3" t="n"/>
+      <c r="J96" s="3" t="n"/>
+      <c r="K96" s="3" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>apps_error_type</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3" t="n"/>
+      <c r="I97" s="3" t="n"/>
+      <c r="J97" s="3" t="n"/>
+      <c r="K97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>apps_1000</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3" t="n"/>
+      <c r="I98" s="3" t="n"/>
+      <c r="J98" s="3" t="n"/>
+      <c r="K98" s="3" t="inlineStr"/>
+    </row>
+    <row r="99"/>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Message: RPM_TARGET</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x499</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>rpm_target</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3" t="n"/>
+      <c r="I102" s="3" t="n"/>
+      <c r="J102" s="3" t="n"/>
+      <c r="K102" s="3" t="inlineStr"/>
+    </row>
+    <row r="103"/>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Message: JETSON_DEBUG</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x605</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>POS_X</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3" t="n"/>
+      <c r="I106" s="3" t="n"/>
+      <c r="J106" s="3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K106" s="3" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>POS_Y</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3" t="n"/>
+      <c r="I107" s="3" t="n"/>
+      <c r="J107" s="3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K107" s="3" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3" t="n"/>
+      <c r="I108" s="3" t="n"/>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+      <c r="K108" s="3" t="inlineStr"/>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Message: JETSON_DATA_1</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x613</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>target_angle</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3" t="n"/>
+      <c r="I112" s="3" t="n"/>
+      <c r="J112" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K112" s="3" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>target_speed</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3" t="n"/>
+      <c r="I113" s="3" t="n"/>
+      <c r="J113" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>actual_angle</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3" t="n"/>
+      <c r="I114" s="3" t="n"/>
+      <c r="J114" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K114" s="3" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>actual_speed</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3" t="n"/>
+      <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>km/h</t>
+        </is>
+      </c>
+      <c r="K115" s="3" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>lap_count</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3" t="n"/>
+      <c r="I116" s="3" t="n"/>
+      <c r="J116" s="3" t="n"/>
+      <c r="K116" s="3" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>current_cone_count</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3" t="n"/>
+      <c r="I117" s="3" t="n"/>
+      <c r="J117" s="3" t="n"/>
+      <c r="K117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>total_cone_count</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3" t="n"/>
+      <c r="I118" s="3" t="n"/>
+      <c r="J118" s="3" t="n"/>
+      <c r="K118" s="3" t="inlineStr"/>
+    </row>
+    <row r="119"/>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_mode_rx</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x205</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Control_word</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3" t="n"/>
+      <c r="I122" s="3" t="n"/>
+      <c r="J122" s="3" t="n"/>
+      <c r="K122" s="3" t="inlineStr">
+        <is>
+          <t>6=shutdown, 15=new_position_bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="123"/>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_position_rx</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x405</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>control_word</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3" t="n"/>
+      <c r="I126" s="3" t="n"/>
+      <c r="J126" s="3" t="n"/>
+      <c r="K126" s="3" t="inlineStr">
+        <is>
+          <t>31=absolute_position, 63=absolute_position_immediatly, 127=relative position_immediatly, 95=relative_position</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>target_position</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3" t="n"/>
+      <c r="I127" s="3" t="n"/>
+      <c r="J127" s="3" t="n"/>
+      <c r="K127" s="3" t="inlineStr"/>
+    </row>
+    <row r="128"/>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_profile_rx</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x305</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>profile_velocity</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3" t="n"/>
+      <c r="I131" s="3" t="n"/>
+      <c r="J131" s="3" t="n"/>
+      <c r="K131" s="3" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>profile_acceleration</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3" t="n"/>
+      <c r="I132" s="3" t="n"/>
+      <c r="J132" s="3" t="n"/>
+      <c r="K132" s="3" t="inlineStr"/>
+    </row>
+    <row r="133"/>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_status_tx</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x185</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3" t="n"/>
+      <c r="I136" s="3" t="n"/>
+      <c r="J136" s="3" t="n"/>
+      <c r="K136" s="3" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>control_word</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3" t="n"/>
+      <c r="I137" s="3" t="n"/>
+      <c r="J137" s="3" t="n"/>
+      <c r="K137" s="3" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>current_actual_value</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3" t="n"/>
+      <c r="I138" s="3" t="n"/>
+      <c r="J138" s="3" t="n"/>
+      <c r="K138" s="3" t="inlineStr"/>
+    </row>
+    <row r="139"/>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_status2_tx</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x285</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>error_code</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3" t="n"/>
+      <c r="I142" s="3" t="n"/>
+      <c r="J142" s="3" t="n"/>
+      <c r="K142" s="3" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3" t="n"/>
+      <c r="I143" s="3" t="n"/>
+      <c r="J143" s="3" t="n"/>
+      <c r="K143" s="3" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>current_average_value</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3" t="n"/>
+      <c r="I144" s="3" t="n"/>
+      <c r="J144" s="3" t="n"/>
+      <c r="K144" s="3" t="inlineStr"/>
+    </row>
+    <row r="145"/>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_position_tx</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x385</t>
+        </is>
+      </c>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" s="3" t="n"/>
+      <c r="I148" s="3" t="n"/>
+      <c r="J148" s="3" t="n"/>
+      <c r="K148" s="3" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>actual_position</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3" t="n"/>
+      <c r="I149" s="3" t="n"/>
+      <c r="J149" s="3" t="n"/>
+      <c r="K149" s="3" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>actual_torque</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C150" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3" t="n"/>
+      <c r="I150" s="3" t="n"/>
+      <c r="J150" s="3" t="n"/>
+      <c r="K150" s="3" t="inlineStr"/>
+    </row>
+    <row r="151"/>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Message: Maxon_velocity_tx</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x485</t>
+        </is>
+      </c>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): MAXON</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>status_word</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3" t="n"/>
+      <c r="I154" s="3" t="n"/>
+      <c r="J154" s="3" t="n"/>
+      <c r="K154" s="3" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>actual_velocity</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3" t="n"/>
+      <c r="I155" s="3" t="n"/>
+      <c r="J155" s="3" t="n"/>
+      <c r="K155" s="3" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>pdw_duty_cicle_actual_value</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3" t="n"/>
+      <c r="I156" s="3" t="n"/>
+      <c r="J156" s="3" t="n"/>
+      <c r="K156" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -16799,7 +16799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K671"/>
+  <dimension ref="A1:K675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16816,7 +16816,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -35923,6 +35923,116 @@
       <c r="J671" s="3" t="n"/>
       <c r="K671" s="3" t="inlineStr"/>
     </row>
+    <row r="672"/>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>Message: Start_PreCharge</t>
+        </is>
+      </c>
+      <c r="B673" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x83</t>
+        </is>
+      </c>
+      <c r="C673" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): VCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B674" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C674" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D674" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E674" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F674" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G674" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H674" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I674" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J674" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K674" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="3" t="inlineStr">
+        <is>
+          <t>Precharge_Request</t>
+        </is>
+      </c>
+      <c r="B675" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C675" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D675" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E675" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F675" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G675" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H675" s="3" t="n"/>
+      <c r="I675" s="3" t="n"/>
+      <c r="J675" s="3" t="inlineStr">
+        <is>
+          <t>ON/OFF</t>
+        </is>
+      </c>
+      <c r="K675" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -16915,14 +16915,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -16946,14 +16950,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
@@ -16977,14 +16985,18 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="n"/>
       <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
@@ -17008,14 +17020,18 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="n"/>
       <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K6" s="3" t="inlineStr"/>
     </row>
     <row r="7"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -16799,7 +16799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K675"/>
+  <dimension ref="A1:K688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16809,13 +16809,13 @@
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
@@ -36049,6 +36049,393 @@
       </c>
       <c r="K675" s="3" t="inlineStr"/>
     </row>
+    <row r="676"/>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>Message: Command_Request_311</t>
+        </is>
+      </c>
+      <c r="B677" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x311</t>
+        </is>
+      </c>
+      <c r="C677" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B678" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C678" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D678" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E678" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F678" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G678" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H678" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I678" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J678" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K678" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="3" t="inlineStr">
+        <is>
+          <t>command_reference_id</t>
+        </is>
+      </c>
+      <c r="B679" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C679" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D679" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E679" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F679" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G679" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H679" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J679" s="3" t="n"/>
+      <c r="K679" s="3" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="3" t="inlineStr">
+        <is>
+          <t>command_value</t>
+        </is>
+      </c>
+      <c r="B680" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C680" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D680" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E680" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F680" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G680" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H680" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J680" s="3" t="n"/>
+      <c r="K680" s="3" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="3" t="inlineStr">
+        <is>
+          <t>command_reserved</t>
+        </is>
+      </c>
+      <c r="B681" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C681" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D681" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E681" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F681" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G681" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H681" s="3" t="n"/>
+      <c r="I681" s="3" t="n"/>
+      <c r="J681" s="3" t="n"/>
+      <c r="K681" s="3" t="inlineStr"/>
+    </row>
+    <row r="682"/>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>Message: Command_Response_312</t>
+        </is>
+      </c>
+      <c r="B683" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x312</t>
+        </is>
+      </c>
+      <c r="C683" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): AMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B684" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C684" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E684" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F684" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G684" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H684" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I684" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J684" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K684" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="3" t="inlineStr">
+        <is>
+          <t>response_reference_id</t>
+        </is>
+      </c>
+      <c r="B685" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C685" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D685" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E685" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F685" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G685" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H685" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J685" s="3" t="n"/>
+      <c r="K685" s="3" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="3" t="inlineStr">
+        <is>
+          <t>response_status</t>
+        </is>
+      </c>
+      <c r="B686" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C686" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D686" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E686" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F686" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G686" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H686" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J686" s="3" t="n"/>
+      <c r="K686" s="3" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="3" t="inlineStr">
+        <is>
+          <t>response_value</t>
+        </is>
+      </c>
+      <c r="B687" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C687" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D687" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E687" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F687" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G687" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H687" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" s="3" t="n">
+        <v>65535</v>
+      </c>
+      <c r="J687" s="3" t="n"/>
+      <c r="K687" s="3" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="3" t="inlineStr">
+        <is>
+          <t>response_reserved</t>
+        </is>
+      </c>
+      <c r="B688" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C688" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D688" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E688" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F688" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G688" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H688" s="3" t="n"/>
+      <c r="I688" s="3" t="n"/>
+      <c r="J688" s="3" t="n"/>
+      <c r="K688" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
